--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarga\OneDrive - AMDOCS\Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175AE65-C5F2-4864-B143-C3F43105DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7AF721-5422-4729-BB50-F3979BEB4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -161,7 +161,7 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
       </font>
-      <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -233,14 +233,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventsTable" displayName="EventsTable" ref="A1:E4" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventsTable" displayName="EventsTable" ref="A1:E4" dataDxfId="5">
   <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Name" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Name" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Speaker" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Speaker" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarga\OneDrive - AMDOCS\Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7AF721-5422-4729-BB50-F3979BEB4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96590D-1917-48AA-BCCD-4207DBB98E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Event Name</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Deepika kore(Excel Specialist)</t>
+  </si>
+  <si>
+    <t>26th November 2025, Wednesday</t>
+  </si>
+  <si>
+    <t>27th November 2025, Wednesday</t>
+  </si>
+  <si>
+    <t>28th November 2025, Wednesday</t>
   </si>
 </sst>
 </file>
@@ -550,13 +559,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.08984375" bestFit="1" customWidth="1"/>
@@ -583,8 +592,8 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>45987</v>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -600,8 +609,8 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4">
-        <v>45988</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -617,8 +626,8 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
-        <v>45989</v>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarga\OneDrive - AMDOCS\Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96590D-1917-48AA-BCCD-4207DBB98E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391C28A-93AA-49EC-8D33-FF940AC9D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>Deepika kore(Excel Specialist)</t>
   </si>
   <si>
-    <t>26th November 2025, Wednesday</t>
-  </si>
-  <si>
-    <t>27th November 2025, Wednesday</t>
-  </si>
-  <si>
-    <t>28th November 2025, Wednesday</t>
+    <t>`26th November 2025, Wednesday`</t>
+  </si>
+  <si>
+    <t>`27th November 2025, Wednesday`</t>
+  </si>
+  <si>
+    <t>`28th November 2025, Wednesday`</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -204,6 +203,7 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -246,10 +246,10 @@
   <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Speaker" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Speaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/events.xlsx
+++ b/events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarga\OneDrive - AMDOCS\Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391C28A-93AA-49EC-8D33-FF940AC9D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A101FCF0-AB53-4273-B042-9895B6143F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
